--- a/outputs-HGR-r202-archive/g__Olsenella_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Olsenella_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,20 +570,20 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001457795_1.fasta</t>
+          <t>label_GCF_001457795_0.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5873790401640472</v>
+        <v>0.6734102822369898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2434756103854411</v>
+        <v>0.1942536834759113</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1691453494505117</v>
+        <v>0.1323360342870989</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5873790401640472</v>
+        <v>0.6734102822369898</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -594,20 +594,20 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001457795_2.fasta</t>
+          <t>label_GCF_001457795_3.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.656488936087318</v>
+        <v>0.9837664531169494</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1876314342545186</v>
+        <v>0.01500310000878352</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1558796296581635</v>
+        <v>0.001230446874266978</v>
       </c>
       <c r="E4" t="n">
-        <v>0.656488936087318</v>
+        <v>0.9837664531169494</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -618,70 +618,22 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_001457795_0.fasta</t>
+          <t>label_GCF_001457795_4.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6734102822369898</v>
+        <v>0.9881862204618894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1942536834759113</v>
+        <v>0.003696404461223051</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1323360342870989</v>
+        <v>0.008117375076887503</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6734102822369898</v>
+        <v>0.9881862204618894</v>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp001457795</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001457795_3.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9837664531169494</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01500310000878352</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001230446874266978</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9837664531169494</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp001457795</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_001457795_4.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9881862204618894</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.003696404461223051</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.008117375076887503</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9881862204618894</v>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>s__Olsenella sp001457795</t>
         </is>
@@ -698,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,20 +1221,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_10.fasta</t>
+          <t>label_UMGS68_18.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00621448902286256</v>
+        <v>0.001436043616502685</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9929036870386143</v>
+        <v>0.9891285773821755</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0008818239385231307</v>
+        <v>0.009435379001321811</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9929036870386143</v>
+        <v>0.9891285773821755</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1293,20 +1245,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_105.fasta</t>
+          <t>label_UMGS68_19.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.209792770070252e-05</v>
+        <v>0.001685258491215012</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9593624664518209</v>
+        <v>0.996380541808379</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0405854356204785</v>
+        <v>0.001934199700406005</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9593624664518209</v>
+        <v>0.996380541808379</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1317,20 +1269,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_26.fasta</t>
+          <t>label_UMGS68_22.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00490786656279297</v>
+        <v>0.001544272759460222</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9940298843205426</v>
+        <v>0.9969325723807231</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001062249116664448</v>
+        <v>0.001523154859816753</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9940298843205426</v>
+        <v>0.9969325723807231</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1341,20 +1293,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_3.fasta</t>
+          <t>label_UMGS68_33.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004365006694632295</v>
+        <v>0.0003068323945685701</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9885310986688768</v>
+        <v>0.9695541542568746</v>
       </c>
       <c r="D27" t="n">
-        <v>0.007103894636490911</v>
+        <v>0.03013901334855683</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9885310986688768</v>
+        <v>0.9695541542568746</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1365,20 +1317,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_34.fasta</t>
+          <t>label_UMGS68_38.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.003721537527720678</v>
+        <v>0.0002789729729889729</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9953769245371832</v>
+        <v>0.9811570723327644</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0009015379350961839</v>
+        <v>0.01856395469424658</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9953769245371832</v>
+        <v>0.9811570723327644</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1389,20 +1341,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_42.fasta</t>
+          <t>label_UMGS68_41.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.002785903056399862</v>
+        <v>0.001956944149430291</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9957899970227065</v>
+        <v>0.9934341499214747</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001424099920893571</v>
+        <v>0.004608905929094987</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9957899970227065</v>
+        <v>0.9934341499214747</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1413,20 +1365,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_47.fasta</t>
+          <t>label_UMGS68_43.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0005791663377916418</v>
+        <v>0.002444432724340374</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9936031475260537</v>
+        <v>0.9937306289235536</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005817686136154653</v>
+        <v>0.003824938352105984</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9936031475260537</v>
+        <v>0.9937306289235536</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1437,20 +1389,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_49.fasta</t>
+          <t>label_UMGS68_50.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002473256638587433</v>
+        <v>1.432078973114435e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9860562404394466</v>
+        <v>0.9963786122448683</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01147050292196604</v>
+        <v>0.003607066965400442</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9860562404394466</v>
+        <v>0.9963786122448683</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1461,20 +1413,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_62.fasta</t>
+          <t>label_UMGS68_54.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001867388431894671</v>
+        <v>0.0002939066799512548</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9935343688096199</v>
+        <v>0.9932946337942489</v>
       </c>
       <c r="D32" t="n">
-        <v>0.004598242758485476</v>
+        <v>0.006411459525799821</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9935343688096199</v>
+        <v>0.9932946337942489</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1485,20 +1437,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_63.fasta</t>
+          <t>label_UMGS68_55.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00110428128045103</v>
+        <v>0.0003326032607361076</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9964820839537174</v>
+        <v>0.965502421647169</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00241363476583155</v>
+        <v>0.03416497509209488</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9964820839537174</v>
+        <v>0.965502421647169</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1509,20 +1461,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_69.fasta</t>
+          <t>label_UMGS68_58.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001577499389923606</v>
+        <v>0.0006304421369539278</v>
       </c>
       <c r="C34" t="n">
-        <v>0.99405450508174</v>
+        <v>0.9785184195989628</v>
       </c>
       <c r="D34" t="n">
-        <v>0.004367995528336459</v>
+        <v>0.0208511382640834</v>
       </c>
       <c r="E34" t="n">
-        <v>0.99405450508174</v>
+        <v>0.9785184195989628</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1533,20 +1485,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_79.fasta</t>
+          <t>label_UMGS68_6.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001480255839582206</v>
+        <v>0.002154184018457422</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9734988557140223</v>
+        <v>0.9955334105344934</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02502088844639554</v>
+        <v>0.002312405447049265</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9734988557140223</v>
+        <v>0.9955334105344934</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1557,20 +1509,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_84.fasta</t>
+          <t>label_UMGS68_66.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.001683750411823124</v>
+        <v>5.348538712712345e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9724294498640679</v>
+        <v>0.9951234573302433</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02588679972410908</v>
+        <v>0.004823057282629587</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9724294498640679</v>
+        <v>0.9951234573302433</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1581,20 +1533,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_85.fasta</t>
+          <t>label_UMGS68_67.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0003519505805633036</v>
+        <v>7.518450046042785e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9919806861970005</v>
+        <v>0.9938043433497568</v>
       </c>
       <c r="D37" t="n">
-        <v>0.007667363222436154</v>
+        <v>0.006120472149782894</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9919806861970005</v>
+        <v>0.9938043433497568</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1605,20 +1557,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_90.fasta</t>
+          <t>label_UMGS68_77.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.000334212058175836</v>
+        <v>9.504334543015013e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9892854440946532</v>
+        <v>0.991467636388711</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01038034384717094</v>
+        <v>0.008437320265858769</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9892854440946532</v>
+        <v>0.991467636388711</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1629,20 +1581,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_91.fasta</t>
+          <t>label_UMGS68_83.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.002896960908971572</v>
+        <v>5.715441430482611e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9689638549346902</v>
+        <v>0.9239318211419295</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02813918415633822</v>
+        <v>0.07601102444376565</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9689638549346902</v>
+        <v>0.9239318211419295</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1653,20 +1605,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_94.fasta</t>
+          <t>label_UMGS68_86.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0003404068841463126</v>
+        <v>0.0001914697305145594</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9787150649301838</v>
+        <v>0.9756696852181703</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0209445281856699</v>
+        <v>0.02413884505131517</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9787150649301838</v>
+        <v>0.9756696852181703</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1677,20 +1629,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_97.fasta</t>
+          <t>label_UMGS68_88.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.002304570234283946</v>
+        <v>0.0002561657838248697</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9730004541651305</v>
+        <v>0.9891585247625356</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02469497560058562</v>
+        <v>0.01058530945363948</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9730004541651305</v>
+        <v>0.9891585247625356</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1701,20 +1653,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_99.fasta</t>
+          <t>label_UMGS68_95.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0007475106782231687</v>
+        <v>0.000136505616556061</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9930798793580196</v>
+        <v>0.9896008637650856</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006172609963757241</v>
+        <v>0.01026263061835834</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9930798793580196</v>
+        <v>0.9896008637650856</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1725,20 +1677,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_18.fasta</t>
+          <t>label_UMGS68_96.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.001436043616502685</v>
+        <v>3.705785889558064e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9891285773821755</v>
+        <v>0.98706041537612</v>
       </c>
       <c r="D43" t="n">
-        <v>0.009435379001321811</v>
+        <v>0.01290252676498445</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9891285773821755</v>
+        <v>0.98706041537612</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1749,20 +1701,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_19.fasta</t>
+          <t>label_UMGS68_0.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001685258491215012</v>
+        <v>4.302238928608191e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.996380541808379</v>
+        <v>0.9996333478317158</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001934199700406005</v>
+        <v>0.0003666521682412387</v>
       </c>
       <c r="E44" t="n">
-        <v>0.996380541808379</v>
+        <v>0.9996333478317158</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1773,20 +1725,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_22.fasta</t>
+          <t>label_UMGS68_100.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001544272759460222</v>
+        <v>2.219813177420862e-14</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9969325723807231</v>
+        <v>0.995860005255442</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001523154859816753</v>
+        <v>0.00413999474453565</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9969325723807231</v>
+        <v>0.995860005255442</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1797,20 +1749,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_33.fasta</t>
+          <t>label_UMGS68_101.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0003068323945685701</v>
+        <v>2.219819212655754e-14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9695541542568746</v>
+        <v>0.9907517423966281</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03013901334855683</v>
+        <v>0.009248257603349656</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9695541542568746</v>
+        <v>0.9907517423966281</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1821,20 +1773,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_38.fasta</t>
+          <t>label_UMGS68_106.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0002789729729889729</v>
+        <v>2.219858167410992e-14</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9811570723327644</v>
+        <v>0.9722546271840009</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01856395469424658</v>
+        <v>0.02774537281597697</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9811570723327644</v>
+        <v>0.9722546271840009</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1845,20 +1797,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_41.fasta</t>
+          <t>label_UMGS68_11.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001956944149430291</v>
+        <v>1.585117578745821e-13</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9934341499214747</v>
+        <v>0.9986695832722726</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004608905929094987</v>
+        <v>0.001330416727568925</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9934341499214747</v>
+        <v>0.9986695832722726</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1869,20 +1821,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_43.fasta</t>
+          <t>label_UMGS68_36.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.002444432724340374</v>
+        <v>5.254732335636307e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9937306289235536</v>
+        <v>0.9901788015432503</v>
       </c>
       <c r="D49" t="n">
-        <v>0.003824938352105984</v>
+        <v>0.009821198456697136</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9937306289235536</v>
+        <v>0.9901788015432503</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1893,20 +1845,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_50.fasta</t>
+          <t>label_UMGS68_4.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.432078973114435e-05</v>
+        <v>5.052221461820235e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9963786122448683</v>
+        <v>0.9992325889580743</v>
       </c>
       <c r="D50" t="n">
-        <v>0.003607066965400442</v>
+        <v>0.0007674110418751276</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9963786122448683</v>
+        <v>0.9992325889580743</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1917,20 +1869,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_54.fasta</t>
+          <t>label_UMGS68_44.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0002939066799512548</v>
+        <v>1.250597870107168e-13</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9932946337942489</v>
+        <v>0.9972918948455328</v>
       </c>
       <c r="D51" t="n">
-        <v>0.006411459525799821</v>
+        <v>0.002708105154342093</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9932946337942489</v>
+        <v>0.9972918948455328</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1941,20 +1893,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_55.fasta</t>
+          <t>label_UMGS68_45.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0003326032607361076</v>
+        <v>2.104672019344303e-13</v>
       </c>
       <c r="C52" t="n">
-        <v>0.965502421647169</v>
+        <v>0.9983285037593896</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03416497509209488</v>
+        <v>0.001671496240399955</v>
       </c>
       <c r="E52" t="n">
-        <v>0.965502421647169</v>
+        <v>0.9983285037593896</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1965,20 +1917,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_58.fasta</t>
+          <t>label_UMGS68_48.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0006304421369539278</v>
+        <v>2.224189621535348e-14</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9785184195989628</v>
+        <v>0.9997187469509289</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0208511382640834</v>
+        <v>0.0002812530490489037</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9785184195989628</v>
+        <v>0.9997187469509289</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1989,20 +1941,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_6.fasta</t>
+          <t>label_UMGS68_51.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.002154184018457422</v>
+        <v>4.381971755420831e-14</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9955334105344934</v>
+        <v>0.9980069939469842</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002312405447049265</v>
+        <v>0.001993006052971996</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9955334105344934</v>
+        <v>0.9980069939469842</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2013,20 +1965,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_66.fasta</t>
+          <t>label_UMGS68_53.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5.348538712712345e-05</v>
+        <v>4.869936511758971e-14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9951234573302433</v>
+        <v>0.997923039808461</v>
       </c>
       <c r="D55" t="n">
-        <v>0.004823057282629587</v>
+        <v>0.002076960191490198</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9951234573302433</v>
+        <v>0.997923039808461</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2037,20 +1989,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_67.fasta</t>
+          <t>label_UMGS68_57.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7.518450046042785e-05</v>
+        <v>4.585051731422237e-14</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9938043433497568</v>
+        <v>0.9851874131613972</v>
       </c>
       <c r="D56" t="n">
-        <v>0.006120472149782894</v>
+        <v>0.01481258683855697</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9938043433497568</v>
+        <v>0.9851874131613972</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2061,20 +2013,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_77.fasta</t>
+          <t>label_UMGS68_61.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>9.504334543015013e-05</v>
+        <v>3.65868853372153e-14</v>
       </c>
       <c r="C57" t="n">
-        <v>0.991467636388711</v>
+        <v>0.9969138428813475</v>
       </c>
       <c r="D57" t="n">
-        <v>0.008437320265858769</v>
+        <v>0.003086157118615853</v>
       </c>
       <c r="E57" t="n">
-        <v>0.991467636388711</v>
+        <v>0.9969138428813475</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2085,20 +2037,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_83.fasta</t>
+          <t>label_UMGS68_64.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.715441430482611e-05</v>
+        <v>2.221411659561258e-14</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9239318211419295</v>
+        <v>0.9883019957888552</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07601102444376565</v>
+        <v>0.01169800421112253</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9239318211419295</v>
+        <v>0.9883019957888552</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2109,20 +2061,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_86.fasta</t>
+          <t>label_UMGS68_65.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0001914697305145594</v>
+        <v>7.4210637446637e-14</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9756696852181703</v>
+        <v>0.978780689476201</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02413884505131517</v>
+        <v>0.02121931052372478</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9756696852181703</v>
+        <v>0.978780689476201</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2133,20 +2085,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_88.fasta</t>
+          <t>label_UMGS68_70.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0002561657838248697</v>
+        <v>2.219885272303363e-14</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9891585247625356</v>
+        <v>0.969755725170426</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01058530945363948</v>
+        <v>0.03024427482955172</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9891585247625356</v>
+        <v>0.969755725170426</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2157,20 +2109,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_95.fasta</t>
+          <t>label_UMGS68_74.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.000136505616556061</v>
+        <v>2.219813994100164e-14</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9896008637650856</v>
+        <v>0.9957787093349343</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01026263061835834</v>
+        <v>0.004221290665043553</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9896008637650856</v>
+        <v>0.9957787093349343</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2181,20 +2133,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_96.fasta</t>
+          <t>label_UMGS68_87.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3.705785889558064e-05</v>
+        <v>2.219918668770692e-14</v>
       </c>
       <c r="C62" t="n">
-        <v>0.98706041537612</v>
+        <v>0.9578401312993787</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01290252676498445</v>
+        <v>0.04215986870059914</v>
       </c>
       <c r="E62" t="n">
-        <v>0.98706041537612</v>
+        <v>0.9578401312993787</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2205,20 +2157,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_0.fasta</t>
+          <t>label_UMGS68_9.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.302238928608191e-14</v>
+        <v>1.574226464882486e-13</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9996333478317158</v>
+        <v>0.9963079107680448</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0003666521682412387</v>
+        <v>0.003692089231797769</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9996333478317158</v>
+        <v>0.9963079107680448</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2229,20 +2181,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_100.fasta</t>
+          <t>label_UMGS68_93.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.219813177420862e-14</v>
+        <v>2.220409944192798e-14</v>
       </c>
       <c r="C64" t="n">
-        <v>0.995860005255442</v>
+        <v>0.5485847269867475</v>
       </c>
       <c r="D64" t="n">
-        <v>0.00413999474453565</v>
+        <v>0.4514152730132302</v>
       </c>
       <c r="E64" t="n">
-        <v>0.995860005255442</v>
+        <v>0.5485847269867475</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2253,20 +2205,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_101.fasta</t>
+          <t>label_UMGS68_103.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.219819212655754e-14</v>
+        <v>2.220398836357647e-14</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9907517423966281</v>
+        <v>0.9999250452901034</v>
       </c>
       <c r="D65" t="n">
-        <v>0.009248257603349656</v>
+        <v>7.495470987453269e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9907517423966281</v>
+        <v>0.9999250452901034</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2277,44 +2229,44 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_106.fasta</t>
+          <t>label_UMGS68_104.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.219858167410992e-14</v>
+        <v>2.331832444053859e-14</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9722546271840009</v>
+        <v>0.3690034584811923</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02774537281597697</v>
+        <v>0.6309965415187843</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9722546271840009</v>
+        <v>0.6309965415187843</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>s__Olsenella sp900538935</t>
+          <t>s__Olsenella sp900555995</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_11.fasta</t>
+          <t>label_UMGS68_14.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.585117578745821e-13</v>
+        <v>0.0004698524047994177</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9986695832722726</v>
+        <v>0.9990602890141439</v>
       </c>
       <c r="D67" t="n">
-        <v>0.001330416727568925</v>
+        <v>0.0004698585810565328</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9986695832722726</v>
+        <v>0.9990602890141439</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2325,20 +2277,20 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_36.fasta</t>
+          <t>label_UMGS68_15.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5.254732335636307e-14</v>
+        <v>0.00167650535839847</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9901788015432503</v>
+        <v>0.9966469537558867</v>
       </c>
       <c r="D68" t="n">
-        <v>0.009821198456697136</v>
+        <v>0.001676540885714612</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9901788015432503</v>
+        <v>0.9966469537558867</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2349,20 +2301,20 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_4.fasta</t>
+          <t>label_UMGS68_2.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5.052221461820235e-14</v>
+        <v>0.001883587716514842</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9992325889580743</v>
+        <v>0.9962328037514487</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0007674110418751276</v>
+        <v>0.001883608532036577</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9992325889580743</v>
+        <v>0.9962328037514487</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2373,20 +2325,20 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_44.fasta</t>
+          <t>label_UMGS68_20.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.250597870107168e-13</v>
+        <v>0.0006530712819434242</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9972918948455328</v>
+        <v>0.9986936897962873</v>
       </c>
       <c r="D70" t="n">
-        <v>0.002708105154342093</v>
+        <v>0.0006532389217692575</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9972918948455328</v>
+        <v>0.9986936897962873</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2397,20 +2349,20 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_45.fasta</t>
+          <t>label_UMGS68_21.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.104672019344303e-13</v>
+        <v>2.220983749972262e-14</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9983285037593896</v>
+        <v>0.9999999937802004</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001671496240399955</v>
+        <v>6.219777393566043e-09</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9983285037593896</v>
+        <v>0.9999999937802004</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2421,20 +2373,20 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_48.fasta</t>
+          <t>label_UMGS68_23.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.224189621535348e-14</v>
+        <v>0.001179401579496584</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9997187469509289</v>
+        <v>0.9976399454741135</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0002812530490489037</v>
+        <v>0.00118065294638979</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9997187469509289</v>
+        <v>0.9976399454741135</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2445,20 +2397,20 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_51.fasta</t>
+          <t>label_UMGS68_28.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4.381971755420831e-14</v>
+        <v>1.866523841718086e-11</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9980069939469842</v>
+        <v>0.9833320995767256</v>
       </c>
       <c r="D73" t="n">
-        <v>0.001993006052971996</v>
+        <v>0.0166679004046092</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9980069939469842</v>
+        <v>0.9833320995767256</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2469,20 +2421,20 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_53.fasta</t>
+          <t>label_UMGS68_29.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4.869936511758971e-14</v>
+        <v>2.220940263092851e-14</v>
       </c>
       <c r="C74" t="n">
-        <v>0.997923039808461</v>
+        <v>0.9999999807139688</v>
       </c>
       <c r="D74" t="n">
-        <v>0.002076960191490198</v>
+        <v>1.928600897190376e-08</v>
       </c>
       <c r="E74" t="n">
-        <v>0.997923039808461</v>
+        <v>0.9999999807139688</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2493,20 +2445,20 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_57.fasta</t>
+          <t>label_UMGS68_31.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.585051731422237e-14</v>
+        <v>0.0004311017017305457</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9851874131613972</v>
+        <v>0.9991367789179284</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01481258683855697</v>
+        <v>0.0004321193803409899</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9851874131613972</v>
+        <v>0.9991367789179284</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2517,20 +2469,20 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_61.fasta</t>
+          <t>label_UMGS68_39.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.65868853372153e-14</v>
+        <v>2.270360688745119e-13</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9969138428813475</v>
+        <v>0.9854964277300126</v>
       </c>
       <c r="D76" t="n">
-        <v>0.003086157118615853</v>
+        <v>0.01450357226976047</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9969138428813475</v>
+        <v>0.9854964277300126</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2541,20 +2493,20 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_64.fasta</t>
+          <t>label_UMGS68_5.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.221411659561258e-14</v>
+        <v>0.002198534776786471</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9883019957888552</v>
+        <v>0.9956028668223404</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01169800421112253</v>
+        <v>0.002198598400873202</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9883019957888552</v>
+        <v>0.9956028668223404</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2565,44 +2517,44 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_65.fasta</t>
+          <t>label_UMGS68_52.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7.4210637446637e-14</v>
+        <v>6.28340516743373e-14</v>
       </c>
       <c r="C78" t="n">
-        <v>0.978780689476201</v>
+        <v>0.07618664470621983</v>
       </c>
       <c r="D78" t="n">
-        <v>0.02121931052372478</v>
+        <v>0.9238133552937173</v>
       </c>
       <c r="E78" t="n">
-        <v>0.978780689476201</v>
+        <v>0.9238133552937173</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>s__Olsenella sp900538935</t>
+          <t>s__Olsenella sp900555995</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_70.fasta</t>
+          <t>label_UMGS68_59.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.219885272303363e-14</v>
+        <v>6.684743041587188e-14</v>
       </c>
       <c r="C79" t="n">
-        <v>0.969755725170426</v>
+        <v>0.9994609686354458</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03024427482955172</v>
+        <v>0.0005390313644874366</v>
       </c>
       <c r="E79" t="n">
-        <v>0.969755725170426</v>
+        <v>0.9994609686354458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2613,20 +2565,20 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_74.fasta</t>
+          <t>label_UMGS68_60.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.219813994100164e-14</v>
+        <v>2.220571651493755e-14</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9957787093349343</v>
+        <v>0.9999998730299395</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004221290665043553</v>
+        <v>1.269700383150605e-07</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9957787093349343</v>
+        <v>0.9999998730299395</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2637,20 +2589,20 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_87.fasta</t>
+          <t>label_UMGS68_7.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.219918668770692e-14</v>
+        <v>2.417984274153202e-11</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9578401312993787</v>
+        <v>0.9863866643858669</v>
       </c>
       <c r="D81" t="n">
-        <v>0.04215986870059914</v>
+        <v>0.01361333558995331</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9578401312993787</v>
+        <v>0.9863866643858669</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2661,20 +2613,20 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_9.fasta</t>
+          <t>label_UMGS68_71.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.574226464882486e-13</v>
+        <v>1.764089507978963e-13</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9963079107680448</v>
+        <v>0.9957735703948233</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003692089231797769</v>
+        <v>0.004226429605000331</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9963079107680448</v>
+        <v>0.9957735703948233</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2685,20 +2637,20 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_93.fasta</t>
+          <t>label_UMGS68_72.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.220409944192798e-14</v>
+        <v>2.220928897516757e-14</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5485847269867475</v>
+        <v>0.9999830502170672</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4514152730132302</v>
+        <v>1.694978291057476e-05</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5485847269867475</v>
+        <v>0.9999830502170672</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2709,20 +2661,20 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_103.fasta</t>
+          <t>label_UMGS68_75.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.220398836357647e-14</v>
+        <v>2.220920543094767e-14</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9999250452901034</v>
+        <v>0.9999761467086213</v>
       </c>
       <c r="D84" t="n">
-        <v>7.495470987453269e-05</v>
+        <v>2.385329135638864e-05</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9999250452901034</v>
+        <v>0.9999761467086213</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2733,44 +2685,44 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_104.fasta</t>
+          <t>label_UMGS68_8.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.331832444053859e-14</v>
+        <v>0.0004032740307462205</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3690034584811923</v>
+        <v>0.9991934515385834</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6309965415187843</v>
+        <v>0.0004032744306704653</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6309965415187843</v>
+        <v>0.9991934515385834</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>s__Olsenella sp900555995</t>
+          <t>s__Olsenella sp900538935</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_14.fasta</t>
+          <t>label_UMGS68_80.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0004698524047994177</v>
+        <v>2.221779425643147e-14</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9990602890141439</v>
+        <v>0.9999673018636275</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0004698585810565328</v>
+        <v>3.269813635038571e-05</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9990602890141439</v>
+        <v>0.9999673018636275</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2781,20 +2733,20 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_15.fasta</t>
+          <t>label_UMGS68_82.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.00167650535839847</v>
+        <v>2.223657633877396e-14</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9966469537558867</v>
+        <v>0.9997805223829772</v>
       </c>
       <c r="D87" t="n">
-        <v>0.001676540885714612</v>
+        <v>0.0002194776170006051</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9966469537558867</v>
+        <v>0.9997805223829772</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2805,44 +2757,44 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_2.fasta</t>
+          <t>label_UMGS68_89.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.001883587716514842</v>
+        <v>3.696747802635835e-14</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9962328037514487</v>
+        <v>0.007020902681946817</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001883608532036577</v>
+        <v>0.9929790973180161</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9962328037514487</v>
+        <v>0.9929790973180161</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>s__Olsenella sp900538935</t>
+          <t>s__Olsenella sp900555995</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_20.fasta</t>
+          <t>label_UMGS68_98.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0006530712819434242</v>
+        <v>2.220193157615342e-14</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9986936897962873</v>
+        <v>0.9990194862152703</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0006532389217692575</v>
+        <v>0.0009805137847075196</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9986936897962873</v>
+        <v>0.9990194862152703</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2853,20 +2805,20 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_21.fasta</t>
+          <t>label_UMGS68_1.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2.220983749972262e-14</v>
+        <v>1.169994860241352e-13</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9999999937802004</v>
+        <v>0.999736163071321</v>
       </c>
       <c r="D90" t="n">
-        <v>6.219777393566043e-09</v>
+        <v>0.0002638369285620249</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9999999937802004</v>
+        <v>0.999736163071321</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2877,20 +2829,20 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_23.fasta</t>
+          <t>label_UMGS68_102.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.001179401579496584</v>
+        <v>2.219809237706865e-14</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9976399454741135</v>
+        <v>0.9981706752639378</v>
       </c>
       <c r="D91" t="n">
-        <v>0.00118065294638979</v>
+        <v>0.001829324736040077</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9976399454741135</v>
+        <v>0.9981706752639378</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2901,20 +2853,20 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_28.fasta</t>
+          <t>label_UMGS68_12.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.866523841718086e-11</v>
+        <v>0.000637133444904494</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9833320995767256</v>
+        <v>0.9986913596473663</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0166679004046092</v>
+        <v>0.0006715069077292523</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9833320995767256</v>
+        <v>0.9986913596473663</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2925,20 +2877,20 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_29.fasta</t>
+          <t>label_UMGS68_13.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2.220940263092851e-14</v>
+        <v>2.219964034939276e-14</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9999999807139688</v>
+        <v>0.9984356081289979</v>
       </c>
       <c r="D93" t="n">
-        <v>1.928600897190376e-08</v>
+        <v>0.001564391870979933</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9999999807139688</v>
+        <v>0.9984356081289979</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2949,20 +2901,20 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_31.fasta</t>
+          <t>label_UMGS68_16.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0004311017017305457</v>
+        <v>2.467114415072872e-13</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9991367789179284</v>
+        <v>0.9976120514528151</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0004321193803409899</v>
+        <v>0.002387948546938144</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9991367789179284</v>
+        <v>0.9976120514528151</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2973,20 +2925,20 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_39.fasta</t>
+          <t>label_UMGS68_17.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.270360688745119e-13</v>
+        <v>8.361474367015518e-14</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9854964277300126</v>
+        <v>0.9989425533474554</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01450357226976047</v>
+        <v>0.001057446652461017</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9854964277300126</v>
+        <v>0.9989425533474554</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2997,20 +2949,20 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_5.fasta</t>
+          <t>label_UMGS68_24.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.002198534776786471</v>
+        <v>1.140775201129563e-13</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9956028668223404</v>
+        <v>0.9994471312808586</v>
       </c>
       <c r="D96" t="n">
-        <v>0.002198598400873202</v>
+        <v>0.0005528687190273516</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9956028668223404</v>
+        <v>0.9994471312808586</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3021,44 +2973,44 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_52.fasta</t>
+          <t>label_UMGS68_25.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6.28340516743373e-14</v>
+        <v>2.071982157324014e-13</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07618664470621983</v>
+        <v>0.9994506993810216</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9238133552937173</v>
+        <v>0.0005493006187711217</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9238133552937173</v>
+        <v>0.9994506993810216</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>s__Olsenella sp900555995</t>
+          <t>s__Olsenella sp900538935</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_59.fasta</t>
+          <t>label_UMGS68_27.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>6.684743041587188e-14</v>
+        <v>0.0005760992182193788</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9994609686354458</v>
+        <v>0.9987849807864179</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0005390313644874366</v>
+        <v>0.000638919995362772</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9994609686354458</v>
+        <v>0.9987849807864179</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3069,20 +3021,20 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_60.fasta</t>
+          <t>label_UMGS68_30.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.220571651493755e-14</v>
+        <v>4.545801551202393e-14</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9999998730299395</v>
+        <v>0.9988311136440234</v>
       </c>
       <c r="D99" t="n">
-        <v>1.269700383150605e-07</v>
+        <v>0.00116888635593106</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9999998730299395</v>
+        <v>0.9988311136440234</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3093,20 +3045,20 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_7.fasta</t>
+          <t>label_UMGS68_32.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2.417984274153202e-11</v>
+        <v>2.791577597335601e-14</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9863866643858669</v>
+        <v>0.9988675616790555</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01361333558995331</v>
+        <v>0.001132438320916615</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9863866643858669</v>
+        <v>0.9988675616790555</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3117,20 +3069,20 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_71.fasta</t>
+          <t>label_UMGS68_35.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1.764089507978963e-13</v>
+        <v>0.0005848927465037278</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9957735703948233</v>
+        <v>0.9987586823946503</v>
       </c>
       <c r="D101" t="n">
-        <v>0.004226429605000331</v>
+        <v>0.0006564248588461557</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9957735703948233</v>
+        <v>0.9987586823946503</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3141,20 +3093,20 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_72.fasta</t>
+          <t>label_UMGS68_37.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2.220928897516757e-14</v>
+        <v>1.558190072340315e-13</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9999830502170672</v>
+        <v>0.9986103087304886</v>
       </c>
       <c r="D102" t="n">
-        <v>1.694978291057476e-05</v>
+        <v>0.001389691269355608</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9999830502170672</v>
+        <v>0.9986103087304886</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3165,20 +3117,20 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_75.fasta</t>
+          <t>label_UMGS68_40.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2.220920543094767e-14</v>
+        <v>2.219883759438267e-14</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9999761467086213</v>
+        <v>0.9677836803760568</v>
       </c>
       <c r="D103" t="n">
-        <v>2.385329135638864e-05</v>
+        <v>0.03221631962392098</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9999761467086213</v>
+        <v>0.9677836803760568</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3189,20 +3141,20 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_8.fasta</t>
+          <t>label_UMGS68_46.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.0004032740307462205</v>
+        <v>2.669688323733708e-14</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9991934515385834</v>
+        <v>0.9994139750253782</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0004032744306704653</v>
+        <v>0.0005860249745951336</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9991934515385834</v>
+        <v>0.9994139750253782</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3213,20 +3165,20 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_80.fasta</t>
+          <t>label_UMGS68_56.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2.221779425643147e-14</v>
+        <v>2.219818314040798e-14</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9999673018636275</v>
+        <v>0.9939985552123117</v>
       </c>
       <c r="D105" t="n">
-        <v>3.269813635038571e-05</v>
+        <v>0.006001444787665978</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9999673018636275</v>
+        <v>0.9939985552123117</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3237,20 +3189,20 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_82.fasta</t>
+          <t>label_UMGS68_68.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2.223657633877396e-14</v>
+        <v>2.219816123446174e-14</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9997805223829772</v>
+        <v>0.9946457577430176</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0002194776170006051</v>
+        <v>0.005354242256960311</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9997805223829772</v>
+        <v>0.9946457577430176</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3261,44 +3213,44 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_89.fasta</t>
+          <t>label_UMGS68_73.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3.696747802635835e-14</v>
+        <v>2.219913540454037e-14</v>
       </c>
       <c r="C107" t="n">
-        <v>0.007020902681946817</v>
+        <v>0.9462930782037412</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9929790973180161</v>
+        <v>0.05370692179623669</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9929790973180161</v>
+        <v>0.9462930782037412</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>s__Olsenella sp900555995</t>
+          <t>s__Olsenella sp900538935</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_98.fasta</t>
+          <t>label_UMGS68_76.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2.220193157615342e-14</v>
+        <v>2.219808009596497e-14</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9990194862152703</v>
+        <v>0.9982620669490962</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0009805137847075196</v>
+        <v>0.00173793305088159</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9990194862152703</v>
+        <v>0.9982620669490962</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3309,20 +3261,20 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_1.fasta</t>
+          <t>label_UMGS68_78.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1.169994860241352e-13</v>
+        <v>2.219808759586881e-14</v>
       </c>
       <c r="C109" t="n">
-        <v>0.999736163071321</v>
+        <v>0.997498408111914</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0002638369285620249</v>
+        <v>0.002501591888063889</v>
       </c>
       <c r="E109" t="n">
-        <v>0.999736163071321</v>
+        <v>0.997498408111914</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3333,20 +3285,20 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_102.fasta</t>
+          <t>label_UMGS68_81.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.219809237706865e-14</v>
+        <v>2.21980819240334e-14</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9981706752639378</v>
+        <v>0.9984894959652515</v>
       </c>
       <c r="D110" t="n">
-        <v>0.001829324736040077</v>
+        <v>0.001510504034726232</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9981706752639378</v>
+        <v>0.9984894959652515</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3357,478 +3309,22 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS68_12.fasta</t>
+          <t>label_UMGS68_92.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.000637133444904494</v>
+        <v>2.219822823390145e-14</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9986913596473663</v>
+        <v>0.9938188214150075</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0006715069077292523</v>
+        <v>0.006181178584970201</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9986913596473663</v>
+        <v>0.9938188214150075</v>
       </c>
       <c r="F111" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_13.fasta</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>2.219964034939276e-14</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9984356081289979</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.001564391870979933</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.9984356081289979</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_16.fasta</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>2.467114415072872e-13</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.9976120514528151</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.002387948546938144</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.9976120514528151</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_17.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>8.361474367015518e-14</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.9989425533474554</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.001057446652461017</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.9989425533474554</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_24.fasta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>1.140775201129563e-13</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.9994471312808586</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.0005528687190273516</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.9994471312808586</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_25.fasta</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2.071982157324014e-13</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9994506993810216</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.0005493006187711217</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.9994506993810216</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_27.fasta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.0005760992182193788</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9987849807864179</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.000638919995362772</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.9987849807864179</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_30.fasta</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>4.545801551202393e-14</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.9988311136440234</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.00116888635593106</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.9988311136440234</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_32.fasta</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2.791577597335601e-14</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.9988675616790555</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.001132438320916615</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.9988675616790555</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_35.fasta</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.0005848927465037278</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9987586823946503</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.0006564248588461557</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.9987586823946503</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_37.fasta</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>1.558190072340315e-13</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.9986103087304886</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.001389691269355608</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.9986103087304886</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_40.fasta</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>2.219883759438267e-14</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.9677836803760568</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.03221631962392098</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.9677836803760568</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_46.fasta</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>2.669688323733708e-14</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9994139750253782</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.0005860249745951336</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.9994139750253782</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_56.fasta</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>2.219818314040798e-14</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.9939985552123117</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.006001444787665978</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.9939985552123117</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_68.fasta</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2.219816123446174e-14</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9946457577430176</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.005354242256960311</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.9946457577430176</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_73.fasta</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>2.219913540454037e-14</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9462930782037412</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.05370692179623669</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.9462930782037412</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_76.fasta</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>2.219808009596497e-14</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9982620669490962</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.00173793305088159</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.9982620669490962</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_78.fasta</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>2.219808759586881e-14</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.997498408111914</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.002501591888063889</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.997498408111914</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_81.fasta</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>2.21980819240334e-14</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.9984894959652515</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.001510504034726232</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.9984894959652515</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS68_92.fasta</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>2.219822823390145e-14</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.9938188214150075</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.006181178584970201</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.9938188214150075</v>
-      </c>
-      <c r="F130" t="inlineStr">
         <is>
           <t>s__Olsenella sp900538935</t>
         </is>
@@ -3845,7 +3341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4200,20 +3696,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_11.fasta</t>
+          <t>label_UMGS1887_10.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0004180087912531446</v>
+        <v>0.001031975709991455</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003801449095554318</v>
+        <v>0.007452383526838511</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9957805421131924</v>
+        <v>0.9915156407631701</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9957805421131924</v>
+        <v>0.9915156407631701</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -4224,20 +3720,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_15.fasta</t>
+          <t>label_UMGS1887_13.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00171970209246385</v>
+        <v>5.335571837949974e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>2.634798107546757e-05</v>
+        <v>0.0007675298039236466</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9982539499264605</v>
+        <v>0.9991791144776969</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9982539499264605</v>
+        <v>0.9991791144776969</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -4248,20 +3744,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_19.fasta</t>
+          <t>label_UMGS1887_14.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0008388671505090494</v>
+        <v>0.0002370192467142487</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001045316867062624</v>
+        <v>0.09005809153407487</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9990566011627847</v>
+        <v>0.9097048892192109</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9990566011627847</v>
+        <v>0.9097048892192109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -4272,20 +3768,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_20.fasta</t>
+          <t>label_UMGS1887_23.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0009388940399240659</v>
+        <v>4.063726185229319e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>6.686518836344747e-05</v>
+        <v>0.004222476221123588</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9989942407717125</v>
+        <v>0.9957734600526912</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9989942407717125</v>
+        <v>0.9957734600526912</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -4296,20 +3792,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_22.fasta</t>
+          <t>label_UMGS1887_27.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0005916950994698438</v>
+        <v>0.0001232005429711222</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001583721084651302</v>
+        <v>0.00959672415295169</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999249932792065</v>
+        <v>0.9902800753040771</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999249932792065</v>
+        <v>0.9902800753040771</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4320,20 +3816,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_31.fasta</t>
+          <t>label_UMGS1887_30.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0007963535684431459</v>
+        <v>3.537797726222872e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00339598584549705</v>
+        <v>0.0005690616447557881</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9958076605860599</v>
+        <v>0.9993955603779819</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9958076605860599</v>
+        <v>0.9993955603779819</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4344,20 +3840,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_32.fasta</t>
+          <t>label_UMGS1887_39.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0007637823966282034</v>
+        <v>7.967283997269067e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.005456647663565586</v>
+        <v>0.1048331585769531</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9937795699398063</v>
+        <v>0.8950871685830744</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9937795699398063</v>
+        <v>0.8950871685830744</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4368,20 +3864,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_34.fasta</t>
+          <t>label_UMGS1887_41.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001468053032253304</v>
+        <v>9.226801891973616e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0007023393437720909</v>
+        <v>0.001480069564025362</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9978296076239745</v>
+        <v>0.9985107036340827</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9978296076239745</v>
+        <v>0.9985107036340827</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4392,20 +3888,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_36.fasta</t>
+          <t>label_UMGS1887_46.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0003627587261784205</v>
+        <v>2.336145107574957e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003252779852261312</v>
+        <v>0.0008989196348499323</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9963844614215602</v>
+        <v>0.9990777189140744</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9963844614215602</v>
+        <v>0.9990777189140744</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4416,20 +3912,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_54.fasta</t>
+          <t>label_UMGS1887_50.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00079588144220241</v>
+        <v>0.0001311824538272215</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006796825469030696</v>
+        <v>0.0111608190384596</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9924072930887669</v>
+        <v>0.9887079985077131</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9924072930887669</v>
+        <v>0.9887079985077131</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -4440,20 +3936,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_55.fasta</t>
+          <t>label_UMGS1887_51.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001278871280426794</v>
+        <v>1.027973941966595e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01487595448703663</v>
+        <v>0.008985634451937865</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9838451742325366</v>
+        <v>0.9910040858086425</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9838451742325366</v>
+        <v>0.9910040858086425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -4464,20 +3960,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_59.fasta</t>
+          <t>label_UMGS1887_56.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0005634404086993706</v>
+        <v>0.000140965390924715</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009295122712592948</v>
+        <v>0.05371756292709563</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9901414368787076</v>
+        <v>0.9461414716819797</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9901414368787076</v>
+        <v>0.9461414716819797</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -4488,20 +3984,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_61.fasta</t>
+          <t>label_UMGS1887_63.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0003243048765537501</v>
+        <v>1.198636053283956e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1348527613068424</v>
+        <v>0.03260931016326184</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8648229338166039</v>
+        <v>0.9673787034762052</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8648229338166039</v>
+        <v>0.9673787034762052</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -4512,44 +4008,44 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_62.fasta</t>
+          <t>label_UMGS1887_64.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.001423426785350282</v>
+        <v>2.173525332461953e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7657400666355211</v>
+        <v>0.00754090910387285</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2328365065791287</v>
+        <v>0.9924373556428026</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7657400666355211</v>
+        <v>0.9924373556428026</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>s__Olsenella sp900538935</t>
+          <t>s__Olsenella sp900555995</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_65.fasta</t>
+          <t>label_UMGS1887_9.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00411279564650056</v>
+        <v>0.00113988393382556</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2809801370952252</v>
+        <v>0.02595117135932748</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7149070672582742</v>
+        <v>0.972908944706847</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7149070672582742</v>
+        <v>0.972908944706847</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -4560,20 +4056,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_10.fasta</t>
+          <t>label_UMGS1887_0.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001031975709991455</v>
+        <v>0.0005378860574701786</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007452383526838511</v>
+        <v>0.0005475065975011531</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9915156407631701</v>
+        <v>0.9989146073450288</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9915156407631701</v>
+        <v>0.9989146073450288</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -4584,20 +4080,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_13.fasta</t>
+          <t>label_UMGS1887_12.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.335571837949974e-05</v>
+        <v>9.773215932449336e-14</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0007675298039236466</v>
+        <v>0.001366264753751615</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9991791144776969</v>
+        <v>0.9986337352461507</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9991791144776969</v>
+        <v>0.9986337352461507</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -4608,20 +4104,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_14.fasta</t>
+          <t>label_UMGS1887_18.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0002370192467142487</v>
+        <v>2.220437803541441e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09005809153407487</v>
+        <v>0.0001253974379003019</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9097048892192109</v>
+        <v>0.9998746025620775</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9097048892192109</v>
+        <v>0.9998746025620775</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -4632,20 +4128,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_23.fasta</t>
+          <t>label_UMGS1887_2.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.063726185229319e-06</v>
+        <v>0.0640224799880583</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004222476221123588</v>
+        <v>0.02790485301192782</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9957734600526912</v>
+        <v>0.9080726670000139</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9957734600526912</v>
+        <v>0.9080726670000139</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -4656,20 +4152,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_27.fasta</t>
+          <t>label_UMGS1887_24.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0001232005429711222</v>
+        <v>4.101414902826638e-14</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00959672415295169</v>
+        <v>0.002111578812101734</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9902800753040771</v>
+        <v>0.9978884211878571</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9902800753040771</v>
+        <v>0.9978884211878571</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -4680,20 +4176,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_30.fasta</t>
+          <t>label_UMGS1887_29.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.537797726222872e-05</v>
+        <v>3.404367086500687e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0005690616447557881</v>
+        <v>0.003723893003136298</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9993955603779819</v>
+        <v>0.9962761069968297</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9993955603779819</v>
+        <v>0.9962761069968297</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -4704,20 +4200,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_39.fasta</t>
+          <t>label_UMGS1887_35.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.967283997269067e-05</v>
+        <v>2.264206148341341e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1048331585769531</v>
+        <v>0.002191020282543525</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8950871685830744</v>
+        <v>0.9978089797174339</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8950871685830744</v>
+        <v>0.9978089797174339</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -4728,20 +4224,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_41.fasta</t>
+          <t>label_UMGS1887_44.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.226801891973616e-06</v>
+        <v>2.21981851623481e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001480069564025362</v>
+        <v>0.006729986971631532</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9985107036340827</v>
+        <v>0.9932700130283464</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9985107036340827</v>
+        <v>0.9932700130283464</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -4752,20 +4248,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_46.fasta</t>
+          <t>label_UMGS1887_49.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.336145107574957e-05</v>
+        <v>2.219813716933789e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0008989196348499323</v>
+        <v>0.005767432341913824</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9990777189140744</v>
+        <v>0.994232567658064</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9990777189140744</v>
+        <v>0.994232567658064</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -4776,20 +4272,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_50.fasta</t>
+          <t>label_UMGS1887_52.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0001311824538272215</v>
+        <v>2.219822418493799e-14</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0111608190384596</v>
+        <v>0.007598040478392735</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9887079985077131</v>
+        <v>0.9924019595215852</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9887079985077131</v>
+        <v>0.9924019595215852</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -4800,20 +4296,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_51.fasta</t>
+          <t>label_UMGS1887_53.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.027973941966595e-05</v>
+        <v>2.2199220087352e-14</v>
       </c>
       <c r="C40" t="n">
-        <v>0.008985634451937865</v>
+        <v>0.08053551861574096</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9910040858086425</v>
+        <v>0.9194644813842368</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9910040858086425</v>
+        <v>0.9194644813842368</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4824,20 +4320,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_56.fasta</t>
+          <t>label_UMGS1887_60.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.000140965390924715</v>
+        <v>2.219884085146537e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0.05371756292709563</v>
+        <v>0.0308432656976177</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9461414716819797</v>
+        <v>0.96915673430236</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9461414716819797</v>
+        <v>0.96915673430236</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -4848,44 +4344,44 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_63.fasta</t>
+          <t>label_UMGS1887_68.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.198636053283956e-05</v>
+        <v>0.1902547977536566</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03260931016326184</v>
+        <v>0.496396125132133</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9673787034762052</v>
+        <v>0.3133490771142106</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9673787034762052</v>
+        <v>0.496396125132133</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>s__Olsenella sp900555995</t>
+          <t>s__Olsenella sp900538935</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_64.fasta</t>
+          <t>label_UMGS1887_69.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.173525332461953e-05</v>
+        <v>2.22029329025577e-14</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00754090910387285</v>
+        <v>0.3022401215602077</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9924373556428026</v>
+        <v>0.6977598784397701</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9924373556428026</v>
+        <v>0.6977598784397701</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4896,20 +4392,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_9.fasta</t>
+          <t>label_UMGS1887_8.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.00113988393382556</v>
+        <v>0.0006156815192037746</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02595117135932748</v>
+        <v>0.0006979566022050482</v>
       </c>
       <c r="D44" t="n">
-        <v>0.972908944706847</v>
+        <v>0.9986863618785912</v>
       </c>
       <c r="E44" t="n">
-        <v>0.972908944706847</v>
+        <v>0.9986863618785912</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -4920,20 +4416,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_0.fasta</t>
+          <t>label_UMGS1887_16.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0005378860574701786</v>
+        <v>2.220388956326177e-14</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0005475065975011531</v>
+        <v>8.107565044723711e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9989146073450288</v>
+        <v>0.9999189243495306</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9989146073450288</v>
+        <v>0.9999189243495306</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -4944,20 +4440,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_12.fasta</t>
+          <t>label_UMGS1887_21.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.773215932449336e-14</v>
+        <v>2.220435289089691e-14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.001366264753751615</v>
+        <v>7.543752192472921e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9986337352461507</v>
+        <v>0.9999245624780532</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9986337352461507</v>
+        <v>0.9999245624780532</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -4968,20 +4464,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_18.fasta</t>
+          <t>label_UMGS1887_26.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.220437803541441e-14</v>
+        <v>2.220442049663845e-14</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0001253974379003019</v>
+        <v>5.407694268669752e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9998746025620775</v>
+        <v>0.9999945923057091</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9998746025620775</v>
+        <v>0.9999945923057091</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -4992,20 +4488,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_2.fasta</t>
+          <t>label_UMGS1887_3.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0640224799880583</v>
+        <v>2.220422520403632e-14</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02790485301192782</v>
+        <v>3.2035743653332e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9080726670000139</v>
+        <v>0.9999679642563245</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9080726670000139</v>
+        <v>0.9999679642563245</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -5016,20 +4512,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_24.fasta</t>
+          <t>label_UMGS1887_33.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.101414902826638e-14</v>
+        <v>2.219808286442376e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>0.002111578812101734</v>
+        <v>0.001281516470512119</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9978884211878571</v>
+        <v>0.9987184835294657</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9978884211878571</v>
+        <v>0.9987184835294657</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -5040,20 +4536,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_29.fasta</t>
+          <t>label_UMGS1887_4.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.404367086500687e-14</v>
+        <v>2.220444408242687e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>0.003723893003136298</v>
+        <v>8.496514904140153e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9962761069968297</v>
+        <v>0.9999915034850737</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9962761069968297</v>
+        <v>0.9999915034850737</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -5064,20 +4560,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_35.fasta</t>
+          <t>label_UMGS1887_42.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.264206148341341e-14</v>
+        <v>2.220383156309646e-14</v>
       </c>
       <c r="C51" t="n">
-        <v>0.002191020282543525</v>
+        <v>8.529716616946089e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9978089797174339</v>
+        <v>0.9999147028338083</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9978089797174339</v>
+        <v>0.9999147028338083</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -5088,20 +4584,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_44.fasta</t>
+          <t>label_UMGS1887_43.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.21981851623481e-14</v>
+        <v>2.22039196342918e-14</v>
       </c>
       <c r="C52" t="n">
-        <v>0.006729986971631532</v>
+        <v>7.646092591225671e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9932700130283464</v>
+        <v>0.9999235390740656</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9932700130283464</v>
+        <v>0.9999235390740656</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -5112,20 +4608,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_49.fasta</t>
+          <t>label_UMGS1887_45.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.219813716933789e-14</v>
+        <v>2.220225649912178e-14</v>
       </c>
       <c r="C53" t="n">
-        <v>0.005767432341913824</v>
+        <v>0.0003024488296796518</v>
       </c>
       <c r="D53" t="n">
-        <v>0.994232567658064</v>
+        <v>0.9996975511702982</v>
       </c>
       <c r="E53" t="n">
-        <v>0.994232567658064</v>
+        <v>0.9996975511702982</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -5136,20 +4632,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_52.fasta</t>
+          <t>label_UMGS1887_47.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.219822418493799e-14</v>
+        <v>1.238872598283422e-11</v>
       </c>
       <c r="C54" t="n">
-        <v>0.007598040478392735</v>
+        <v>0.3399288202841155</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9924019595215852</v>
+        <v>0.6600711797034957</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9924019595215852</v>
+        <v>0.6600711797034957</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -5160,20 +4656,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_53.fasta</t>
+          <t>label_UMGS1887_48.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.2199220087352e-14</v>
+        <v>2.219807868238547e-14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08053551861574096</v>
+        <v>0.001810939878303935</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9194644813842368</v>
+        <v>0.998189060121674</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9194644813842368</v>
+        <v>0.998189060121674</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -5184,20 +4680,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_60.fasta</t>
+          <t>label_UMGS1887_66.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.219884085146537e-14</v>
+        <v>2.220718900724226e-14</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0308432656976177</v>
+        <v>2.721814921389905e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0.96915673430236</v>
+        <v>0.999972781850764</v>
       </c>
       <c r="E56" t="n">
-        <v>0.96915673430236</v>
+        <v>0.999972781850764</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -5208,44 +4704,44 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_68.fasta</t>
+          <t>label_UMGS1887_1.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1902547977536566</v>
+        <v>2.220712315039546e-14</v>
       </c>
       <c r="C57" t="n">
-        <v>0.496396125132133</v>
+        <v>1.458816310551194e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3133490771142106</v>
+        <v>0.9999854118368723</v>
       </c>
       <c r="E57" t="n">
-        <v>0.496396125132133</v>
+        <v>0.9999854118368723</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>s__Olsenella sp900538935</t>
+          <t>s__Olsenella sp900555995</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_69.fasta</t>
+          <t>label_UMGS1887_17.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.22029329025577e-14</v>
+        <v>2.219987110761353e-14</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3022401215602077</v>
+        <v>0.0006914209185766636</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6977598784397701</v>
+        <v>0.9993085790814011</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6977598784397701</v>
+        <v>0.9993085790814011</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -5256,20 +4752,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_8.fasta</t>
+          <t>label_UMGS1887_25.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0006156815192037746</v>
+        <v>2.220382074805523e-14</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0006979566022050482</v>
+        <v>9.691131604537923e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9986863618785912</v>
+        <v>0.9999030886839323</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9986863618785912</v>
+        <v>0.9999030886839323</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -5280,20 +4776,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_16.fasta</t>
+          <t>label_UMGS1887_28.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2.220388956326177e-14</v>
+        <v>2.219809289899752e-14</v>
       </c>
       <c r="C60" t="n">
-        <v>8.107565044723711e-05</v>
+        <v>0.00162036085179683</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9999189243495306</v>
+        <v>0.9983796391481811</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9999189243495306</v>
+        <v>0.9983796391481811</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -5304,20 +4800,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_21.fasta</t>
+          <t>label_UMGS1887_37.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.220435289089691e-14</v>
+        <v>2.219808677520539e-14</v>
       </c>
       <c r="C61" t="n">
-        <v>7.543752192472921e-05</v>
+        <v>0.001474665640545575</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9999245624780532</v>
+        <v>0.9985253343594321</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9999245624780532</v>
+        <v>0.9985253343594321</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -5328,20 +4824,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_26.fasta</t>
+          <t>label_UMGS1887_38.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.220442049663845e-14</v>
+        <v>2.219902731889914e-14</v>
       </c>
       <c r="C62" t="n">
-        <v>5.407694268669752e-06</v>
+        <v>0.04710379341820605</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9999945923057091</v>
+        <v>0.9528962065817718</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9999945923057091</v>
+        <v>0.9528962065817718</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -5352,20 +4848,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_3.fasta</t>
+          <t>label_UMGS1887_40.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.220422520403632e-14</v>
+        <v>2.219848225265619e-14</v>
       </c>
       <c r="C63" t="n">
-        <v>3.2035743653332e-05</v>
+        <v>0.01690006959840989</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9999679642563245</v>
+        <v>0.983099930401568</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9999679642563245</v>
+        <v>0.983099930401568</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -5376,20 +4872,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_33.fasta</t>
+          <t>label_UMGS1887_5.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.219808286442376e-14</v>
+        <v>2.220390726916652e-14</v>
       </c>
       <c r="C64" t="n">
-        <v>0.001281516470512119</v>
+        <v>0.0001054289559994384</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9987184835294657</v>
+        <v>0.9998945710439784</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9987184835294657</v>
+        <v>0.9998945710439784</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -5400,20 +4896,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_4.fasta</t>
+          <t>label_UMGS1887_57.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.220444408242687e-14</v>
+        <v>2.219823763859159e-14</v>
       </c>
       <c r="C65" t="n">
-        <v>8.496514904140153e-06</v>
+        <v>0.0101181808230758</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9999915034850737</v>
+        <v>0.9898818191769021</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9999915034850737</v>
+        <v>0.9898818191769021</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -5424,20 +4920,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_42.fasta</t>
+          <t>label_UMGS1887_58.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.220383156309646e-14</v>
+        <v>2.219894979023449e-14</v>
       </c>
       <c r="C66" t="n">
-        <v>8.529716616946089e-05</v>
+        <v>0.04519385085886042</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9999147028338083</v>
+        <v>0.9548061491411174</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9999147028338083</v>
+        <v>0.9548061491411174</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -5448,20 +4944,20 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_43.fasta</t>
+          <t>label_UMGS1887_6.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.22039196342918e-14</v>
+        <v>2.22044321506471e-14</v>
       </c>
       <c r="C67" t="n">
-        <v>7.646092591225671e-05</v>
+        <v>9.873258176775194e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9999235390740656</v>
+        <v>0.9999901267418011</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9999235390740656</v>
+        <v>0.9999901267418011</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -5472,406 +4968,46 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_45.fasta</t>
+          <t>label_UMGS1887_67.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.220225649912178e-14</v>
+        <v>2.219897406331678e-14</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0003024488296796518</v>
+        <v>0.9590261548390785</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9996975511702982</v>
+        <v>0.04097384516089926</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9996975511702982</v>
+        <v>0.9590261548390785</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>s__Olsenella sp900555995</t>
+          <t>s__Olsenella sp900538935</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1887_47.fasta</t>
+          <t>label_UMGS1887_7.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.238872598283422e-11</v>
+        <v>2.220402182940351e-14</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3399288202841155</v>
+        <v>0.0001866042035894891</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6600711797034957</v>
+        <v>0.9998133957963883</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6600711797034957</v>
+        <v>0.9998133957963883</v>
       </c>
       <c r="F69" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_48.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2.219807868238547e-14</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.001810939878303935</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.998189060121674</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.998189060121674</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_66.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>2.220718900724226e-14</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2.721814921389905e-05</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.999972781850764</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.999972781850764</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_1.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2.220712315039546e-14</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1.458816310551194e-05</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9999854118368723</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.9999854118368723</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_17.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2.219987110761353e-14</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.0006914209185766636</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9993085790814011</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.9993085790814011</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_25.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>2.220382074805523e-14</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9.691131604537923e-05</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9999030886839323</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.9999030886839323</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_28.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>2.219809289899752e-14</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.00162036085179683</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9983796391481811</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.9983796391481811</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_37.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>2.219808677520539e-14</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.001474665640545575</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9985253343594321</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.9985253343594321</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_38.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2.219902731889914e-14</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.04710379341820605</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9528962065817718</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.9528962065817718</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_40.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>2.219848225265619e-14</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.01690006959840989</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.983099930401568</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.983099930401568</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_5.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>2.220390726916652e-14</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.0001054289559994384</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9998945710439784</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.9998945710439784</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_57.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>2.219823763859159e-14</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.0101181808230758</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9898818191769021</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.9898818191769021</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_58.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>2.219894979023449e-14</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.04519385085886042</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9548061491411174</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.9548061491411174</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_6.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>2.22044321506471e-14</v>
-      </c>
-      <c r="C82" t="n">
-        <v>9.873258176775194e-06</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.9999901267418011</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.9999901267418011</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900555995</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_67.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>2.219897406331678e-14</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.9590261548390785</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.04097384516089926</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.9590261548390785</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>s__Olsenella sp900538935</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1887_7.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>2.220402182940351e-14</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.0001866042035894891</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.9998133957963883</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.9998133957963883</v>
-      </c>
-      <c r="F84" t="inlineStr">
         <is>
           <t>s__Olsenella sp900555995</t>
         </is>
